--- a/Module 27 - Consolidated Financial Statements Intercompany Transactions and Balances.xlsx
+++ b/Module 27 - Consolidated Financial Statements Intercompany Transactions and Balances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1432" documentId="8_{890A7D63-FBF1-4E8F-AF96-1392FD5E3336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{749E99FA-8A57-4C7B-AC0A-6CA43C32DB0B}"/>
+  <xr:revisionPtr revIDLastSave="1500" documentId="8_{890A7D63-FBF1-4E8F-AF96-1392FD5E3336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CC1696-600D-40F0-B9A7-DC31B97F5FF4}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{7806CDC0-7782-4C14-AFCD-6EDCD328715B}"/>
+    <workbookView xWindow="0" yWindow="1830" windowWidth="28800" windowHeight="14370" xr2:uid="{7806CDC0-7782-4C14-AFCD-6EDCD328715B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="284">
   <si>
     <t>Main</t>
   </si>
@@ -866,13 +866,66 @@
   </si>
   <si>
     <t>cr - Ipswich current account</t>
+  </si>
+  <si>
+    <t>IC balances</t>
+  </si>
+  <si>
+    <t>IC dividends</t>
+  </si>
+  <si>
+    <t>IC Sales and purchases</t>
+  </si>
+  <si>
+    <t>IC mgmt fees</t>
+  </si>
+  <si>
+    <t>IC trnasfers of NCA</t>
+  </si>
+  <si>
+    <r>
+      <t>being reconciliation for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> accounts in transit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> over YE.</t>
+    </r>
+  </si>
+  <si>
+    <t>Parent to sub</t>
+  </si>
+  <si>
+    <t>being elimination of IC salse and purchases</t>
+  </si>
+  <si>
+    <t>Dr - SPL income</t>
+  </si>
+  <si>
+    <t>cr - SPL expense</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,6 +961,14 @@
       <i/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -951,7 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -973,6 +1034,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1337,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617E3E18-F51C-4227-8D6B-79484E0A53C7}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1410,7 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1356,25 +1418,765 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>172</v>
       </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <f>0.2*C23</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1">
+        <f>+C23-C24</f>
+        <v>8</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <f>+C25</f>
+        <v>8</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <f>+C24</f>
+        <v>2</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
+        <f>+C23</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="5">
+        <f>320/80*100</f>
+        <v>400</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="5">
+        <f>+E41*0.8</f>
+        <v>320</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="5">
+        <f>+E41-E42</f>
+        <v>80</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E44" s="5">
+        <f>+D44*E43</f>
+        <v>32</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="5">
+        <f>0.2*E44</f>
+        <v>6.4</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="5">
+        <f>+E41</f>
+        <v>400</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="5">
+        <f>+E47</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="5">
+        <f>+E44</f>
+        <v>32</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="5">
+        <f>+E51</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="5">
+        <f>+E45</f>
+        <v>6.4</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="5">
+        <f>+E55</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>283</v>
+      </c>
+      <c r="F61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="6">
+        <v>44570</v>
+      </c>
+      <c r="D64" s="5">
+        <v>100</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="1">
+        <f>+YEARFRAC(C64,C66)*12</f>
+        <v>18.2</v>
+      </c>
+      <c r="D65" s="5">
+        <f>+C65/120*D64</f>
+        <v>15.166666666666668</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="6">
+        <v>45122</v>
+      </c>
+      <c r="D66" s="5">
+        <f>+D64-D65</f>
+        <v>84.833333333333329</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1">
+        <v>153</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="5">
+        <f>+D67-D66</f>
+        <v>68.166666666666671</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="5">
+        <f>+D68</f>
+        <v>68.166666666666671</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="5">
+        <f>+E70-F72</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="5">
+        <f>+D65</f>
+        <v>15.166666666666668</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="1">
+        <f>6/102</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="E76" s="5">
+        <f>+D76*D67</f>
+        <v>9</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="5">
+        <f>6/120*D64</f>
+        <v>5</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="5">
+        <f>+E76-E77</f>
+        <v>4</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="5">
+        <f>0.2*E78</f>
+        <v>0.8</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="5">
+        <f>+E78</f>
+        <v>4</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="5">
+        <f>+E81</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="5">
+        <f>+E79</f>
+        <v>0.8</v>
+      </c>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="5">
+        <f>+E85</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1394,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD637E7-C999-4393-B756-C47537317CBB}">
   <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B213" sqref="B213"/>
+    <sheetView topLeftCell="A232" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225:F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
